--- a/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,99</t>
+          <t>-4,06; 2,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 1,87</t>
+          <t>-4,66; 2,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 0,27</t>
+          <t>-7,66; 1,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,38; -0,17</t>
+          <t>-9,05; 0,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -0,87</t>
+          <t>-9,5; -0,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 6,64</t>
+          <t>-6,1; 6,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,32</t>
+          <t>-5,22; 0,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; -0,58</t>
+          <t>-6,14; -0,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 2,04</t>
+          <t>-5,65; 1,74</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,39; 43,44</t>
+          <t>-39,67; 41,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,05; 28,18</t>
+          <t>-46,95; 40,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-80,12; 12,66</t>
+          <t>-80,82; 20,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 0,09</t>
+          <t>-51,36; 0,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,96; -5,76</t>
+          <t>-54,85; -3,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 47,78</t>
+          <t>-34,98; 44,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 4,58</t>
+          <t>-39,57; 3,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,83; -5,09</t>
+          <t>-47,24; -6,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 19,16</t>
+          <t>-44,99; 16,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 0,89</t>
+          <t>-6,0; 0,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 0,25</t>
+          <t>-6,64; 0,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 1,52</t>
+          <t>-7,03; 1,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,73</t>
+          <t>-7,79; 0,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,69; -3,36</t>
+          <t>-11,54; -3,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -1,47</t>
+          <t>-10,44; -2,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; -0,35</t>
+          <t>-5,85; -0,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; -2,44</t>
+          <t>-7,8; -2,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -1,3</t>
+          <t>-7,18; -1,04</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 10,77</t>
+          <t>-43,34; 3,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,73; 2,9</t>
+          <t>-48,57; 3,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 14,42</t>
+          <t>-52,94; 15,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 4,67</t>
+          <t>-38,55; 4,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,58; -20,37</t>
+          <t>-55,6; -21,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,08; -7,94</t>
+          <t>-51,29; -11,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,73; -2,67</t>
+          <t>-35,31; -3,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,93; -16,54</t>
+          <t>-47,72; -21,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,93; -9,1</t>
+          <t>-44,64; -7,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 1,17</t>
+          <t>-6,94; 1,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -3,77</t>
+          <t>-11,25; -3,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 1,06</t>
+          <t>-7,23; 1,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 2,27</t>
+          <t>-6,69; 1,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,81; -3,64</t>
+          <t>-11,82; -3,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -3,76</t>
+          <t>-11,19; -3,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,76</t>
+          <t>-5,5; 0,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -4,65</t>
+          <t>-10,89; -4,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -2,51</t>
+          <t>-8,18; -2,51</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 8,99</t>
+          <t>-36,18; 8,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,43; -24,15</t>
+          <t>-58,75; -24,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 7,89</t>
+          <t>-36,79; 9,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 11,99</t>
+          <t>-27,69; 10,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,65; -18,61</t>
+          <t>-48,71; -17,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,07; -18,9</t>
+          <t>-45,85; -16,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 4,22</t>
+          <t>-25,99; 3,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,21; -25,78</t>
+          <t>-50,63; -27,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,6; -13,64</t>
+          <t>-37,93; -13,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 3,26</t>
+          <t>-6,17; 2,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 2,19</t>
+          <t>-6,88; 2,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 1,91</t>
+          <t>-7,42; 2,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 3,66</t>
+          <t>-7,28; 4,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,19; -3,15</t>
+          <t>-13,27; -3,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -2,51</t>
+          <t>-11,81; -2,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,15</t>
+          <t>-5,06; 2,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -1,73</t>
+          <t>-9,03; -1,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -1,45</t>
+          <t>-8,27; -1,21</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 22,71</t>
+          <t>-30,01; 18,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 15,86</t>
+          <t>-35,01; 14,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 11,87</t>
+          <t>-36,63; 14,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 14,58</t>
+          <t>-23,18; 15,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,15; -12,81</t>
+          <t>-43,03; -12,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -10,07</t>
+          <t>-38,24; -9,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 9,92</t>
+          <t>-19,83; 11,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,55; -7,85</t>
+          <t>-35,95; -9,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,29; -6,88</t>
+          <t>-33,33; -5,87</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 0,76</t>
+          <t>-12,11; 1,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,63; -3,91</t>
+          <t>-16,34; -4,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -2,18</t>
+          <t>-13,91; -2,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 3,06</t>
+          <t>-9,63; 3,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,79; -1,14</t>
+          <t>-13,87; -0,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,8; -3,31</t>
+          <t>-13,92; -2,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 0,13</t>
+          <t>-8,9; 0,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -4,17</t>
+          <t>-13,0; -4,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,96; -4,44</t>
+          <t>-12,32; -4,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 2,96</t>
+          <t>-37,27; 4,29</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,44; -14,66</t>
+          <t>-49,23; -16,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,52; -8,08</t>
+          <t>-42,19; -11,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 9,57</t>
+          <t>-25,1; 10,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,98; -3,39</t>
+          <t>-35,15; -2,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,83; -10,67</t>
+          <t>-34,79; -8,64</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 0,56</t>
+          <t>-25,77; 1,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,64; -13,38</t>
+          <t>-37,52; -15,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,45; -14,7</t>
+          <t>-34,75; -14,31</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 0,81</t>
+          <t>-11,29; 1,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -0,1</t>
+          <t>-10,98; -0,17</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -5,32</t>
+          <t>-15,66; -5,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -7,28</t>
+          <t>-17,17; -6,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,46; -8,45</t>
+          <t>-18,95; -8,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,56; -16,45</t>
+          <t>-32,81; -16,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -5,27</t>
+          <t>-12,88; -5,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,12; -6,08</t>
+          <t>-14,28; -6,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-24,21; -13,43</t>
+          <t>-24,4; -13,37</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 2,68</t>
+          <t>-26,62; 3,32</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,4; -0,15</t>
+          <t>-26,14; -0,4</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-37,24; -14,77</t>
+          <t>-36,92; -15,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,19; -13,46</t>
+          <t>-30,06; -12,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,2; -16,17</t>
+          <t>-32,88; -16,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-57,27; -30,67</t>
+          <t>-58,24; -30,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-25,64; -11,23</t>
+          <t>-25,94; -11,0</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-28,21; -13,23</t>
+          <t>-28,46; -13,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-49,52; -29,21</t>
+          <t>-48,23; -28,86</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -0,29</t>
+          <t>-4,13; -0,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,49; -2,1</t>
+          <t>-5,63; -1,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,7</t>
+          <t>-4,75; -0,75</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -1,83</t>
+          <t>-6,49; -2,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -5,23</t>
+          <t>-9,42; -5,16</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -5,2</t>
+          <t>-9,81; -5,05</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -1,8</t>
+          <t>-4,77; -1,79</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -4,09</t>
+          <t>-7,17; -4,3</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-6,38; -3,39</t>
+          <t>-6,38; -3,3</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,14; -1,63</t>
+          <t>-20,04; -0,97</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,15; -11,27</t>
+          <t>-27,4; -9,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-23,01; -3,85</t>
+          <t>-23,02; -4,03</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-20,44; -6,43</t>
+          <t>-20,96; -7,44</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-31,14; -18,4</t>
+          <t>-30,64; -18,21</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-32,27; -18,09</t>
+          <t>-32,17; -17,77</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-18,88; -7,51</t>
+          <t>-18,71; -7,32</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-27,94; -17,02</t>
+          <t>-28,1; -17,86</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-25,18; -14,17</t>
+          <t>-25,12; -13,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,85</t>
+          <t>-3,95; 3,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 2,6</t>
+          <t>-5,14; 1,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 1,12</t>
+          <t>-7,99; 0,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 0,06</t>
+          <t>-9,26; -0,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -0,46</t>
+          <t>-9,44; -0,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 6,01</t>
+          <t>-6,23; 6,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 0,34</t>
+          <t>-5,55; 0,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -0,72</t>
+          <t>-6,18; -0,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 1,74</t>
+          <t>-5,69; 1,96</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 41,53</t>
+          <t>-39,4; 48,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,95; 40,11</t>
+          <t>-51,17; 28,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-80,82; 20,1</t>
+          <t>-81,9; 16,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,36; 0,71</t>
+          <t>-52,01; 0,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,85; -3,28</t>
+          <t>-55,36; -6,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,98; 44,1</t>
+          <t>-36,97; 44,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 3,58</t>
+          <t>-41,78; 2,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,24; -6,78</t>
+          <t>-47,14; -5,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,99; 16,56</t>
+          <t>-45,52; 19,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,4</t>
+          <t>-5,99; 0,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 0,32</t>
+          <t>-6,61; -0,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 1,57</t>
+          <t>-7,27; 1,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,57</t>
+          <t>-7,83; 0,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -3,77</t>
+          <t>-11,64; -3,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,44; -2,14</t>
+          <t>-10,31; -1,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; -0,58</t>
+          <t>-5,81; -0,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -2,89</t>
+          <t>-7,97; -2,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,18; -1,04</t>
+          <t>-7,16; -1,26</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 3,62</t>
+          <t>-43,24; 6,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 3,9</t>
+          <t>-50,07; -0,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 15,81</t>
+          <t>-54,56; 15,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,55; 4,14</t>
+          <t>-38,54; 3,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,6; -21,68</t>
+          <t>-55,47; -22,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,29; -11,96</t>
+          <t>-49,82; -9,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,31; -3,39</t>
+          <t>-34,53; -1,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,72; -21,37</t>
+          <t>-48,38; -18,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,64; -7,75</t>
+          <t>-43,8; -8,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 1,17</t>
+          <t>-6,3; 1,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -3,58</t>
+          <t>-11,26; -3,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 1,39</t>
+          <t>-7,36; 1,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,99</t>
+          <t>-7,04; 2,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -3,58</t>
+          <t>-11,55; -3,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -3,24</t>
+          <t>-11,16; -3,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 0,68</t>
+          <t>-5,45; 0,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -4,99</t>
+          <t>-10,37; -4,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,18; -2,51</t>
+          <t>-8,22; -2,46</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 8,06</t>
+          <t>-33,54; 11,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,75; -24,34</t>
+          <t>-58,04; -24,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 9,61</t>
+          <t>-38,89; 7,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 10,24</t>
+          <t>-28,89; 10,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,71; -17,69</t>
+          <t>-48,05; -18,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,85; -16,77</t>
+          <t>-46,32; -17,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 3,64</t>
+          <t>-25,64; 4,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,63; -27,48</t>
+          <t>-49,01; -25,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,93; -13,37</t>
+          <t>-38,5; -13,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 2,85</t>
+          <t>-6,0; 3,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 2,15</t>
+          <t>-6,8; 2,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 2,26</t>
+          <t>-7,68; 2,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 4,22</t>
+          <t>-7,26; 3,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,27; -3,0</t>
+          <t>-13,74; -3,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,81; -2,28</t>
+          <t>-11,89; -2,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,26</t>
+          <t>-5,2; 2,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -1,98</t>
+          <t>-8,73; -2,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,27; -1,21</t>
+          <t>-8,18; -1,28</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 18,73</t>
+          <t>-30,26; 25,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 14,64</t>
+          <t>-34,07; 17,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,63; 14,35</t>
+          <t>-38,3; 15,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 15,91</t>
+          <t>-23,49; 13,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,03; -12,78</t>
+          <t>-44,0; -13,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,24; -9,0</t>
+          <t>-38,15; -8,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 11,44</t>
+          <t>-20,63; 10,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,95; -9,36</t>
+          <t>-34,92; -9,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,33; -5,87</t>
+          <t>-33,37; -6,53</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 1,08</t>
+          <t>-11,4; 1,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,34; -4,49</t>
+          <t>-15,51; -3,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -2,98</t>
+          <t>-13,66; -2,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 3,43</t>
+          <t>-10,16; 3,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -0,87</t>
+          <t>-13,49; -1,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,92; -2,95</t>
+          <t>-13,73; -2,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 0,41</t>
+          <t>-8,91; 0,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,0; -4,42</t>
+          <t>-13,09; -4,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -4,22</t>
+          <t>-12,44; -4,26</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,27; 4,29</t>
+          <t>-35,32; 5,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,23; -16,85</t>
+          <t>-48,66; -15,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,19; -11,15</t>
+          <t>-41,9; -10,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 10,59</t>
+          <t>-25,66; 9,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,15; -2,82</t>
+          <t>-35,0; -3,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,79; -8,64</t>
+          <t>-33,79; -7,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 1,89</t>
+          <t>-25,65; 1,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-37,52; -15,03</t>
+          <t>-37,5; -14,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,75; -14,31</t>
+          <t>-34,88; -14,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 1,21</t>
+          <t>-11,21; 1,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -0,17</t>
+          <t>-11,18; 0,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,66; -5,53</t>
+          <t>-15,63; -5,45</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -6,49</t>
+          <t>-17,38; -7,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,95; -8,5</t>
+          <t>-18,71; -8,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,81; -16,36</t>
+          <t>-32,64; -16,7</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -5,12</t>
+          <t>-13,28; -5,01</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -6,17</t>
+          <t>-14,39; -6,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-24,4; -13,37</t>
+          <t>-23,96; -13,22</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 3,32</t>
+          <t>-26,57; 3,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-26,14; -0,4</t>
+          <t>-26,62; 0,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-36,92; -15,15</t>
+          <t>-36,82; -14,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,06; -12,04</t>
+          <t>-30,05; -13,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,88; -16,0</t>
+          <t>-32,99; -16,17</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-58,24; -30,87</t>
+          <t>-58,34; -31,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-25,94; -11,0</t>
+          <t>-26,39; -10,68</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-28,46; -13,48</t>
+          <t>-28,92; -13,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-48,23; -28,86</t>
+          <t>-48,59; -28,59</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,18</t>
+          <t>-4,21; -0,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -1,83</t>
+          <t>-5,7; -1,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -0,75</t>
+          <t>-4,86; -0,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,49; -2,07</t>
+          <t>-6,55; -2,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -5,16</t>
+          <t>-9,56; -5,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -5,05</t>
+          <t>-10,08; -5,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -1,79</t>
+          <t>-4,65; -1,78</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,17; -4,3</t>
+          <t>-7,14; -4,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-6,38; -3,3</t>
+          <t>-6,32; -3,32</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -0,97</t>
+          <t>-20,24; -1,62</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,4; -9,79</t>
+          <t>-28,22; -10,49</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-23,02; -4,03</t>
+          <t>-23,54; -4,34</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-20,96; -7,44</t>
+          <t>-21,27; -7,16</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -18,21</t>
+          <t>-30,75; -18,73</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-32,17; -17,77</t>
+          <t>-33,14; -18,5</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -7,32</t>
+          <t>-18,26; -7,35</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-28,1; -17,86</t>
+          <t>-27,85; -17,32</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -13,84</t>
+          <t>-25,15; -14,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tuvo mucha energía alguna vez o algunas veces</t>
+          <t>Población que refirió mucha energía alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 3,22</t>
+          <t>-3,75; 2,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,88</t>
+          <t>-5,62; 1,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 0,87</t>
+          <t>-7,89; 0,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -0,36</t>
+          <t>-9,38; -0,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; -0,66</t>
+          <t>-9,66; -0,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 6,14</t>
+          <t>-6,46; 6,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,19</t>
+          <t>-5,56; 0,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,18; -0,56</t>
+          <t>-6,04; -0,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 1,96</t>
+          <t>-5,85; 2,04</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 48,31</t>
+          <t>-37,39; 43,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-51,17; 28,09</t>
+          <t>-52,05; 28,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,9; 16,99</t>
+          <t>-80,12; 12,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,01; 0,12</t>
+          <t>-53,1; 0,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,36; -6,02</t>
+          <t>-54,96; -5,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 44,52</t>
+          <t>-38,84; 47,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,78; 2,34</t>
+          <t>-42,21; 4,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,14; -5,48</t>
+          <t>-45,83; -5,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,52; 19,8</t>
+          <t>-45,98; 19,16</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 0,6</t>
+          <t>-6,01; 0,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,61; -0,02</t>
+          <t>-6,77; 0,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 1,54</t>
+          <t>-6,89; 1,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 0,55</t>
+          <t>-7,86; 0,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,64; -3,66</t>
+          <t>-11,69; -3,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -1,53</t>
+          <t>-10,43; -1,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; -0,28</t>
+          <t>-6,06; -0,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -2,68</t>
+          <t>-7,79; -2,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -1,26</t>
+          <t>-7,27; -1,3</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 6,34</t>
+          <t>-43,31; 10,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,07; -0,2</t>
+          <t>-48,73; 2,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 15,47</t>
+          <t>-51,88; 14,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,54; 3,33</t>
+          <t>-37,6; 4,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,47; -22,38</t>
+          <t>-56,58; -20,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,82; -9,07</t>
+          <t>-52,08; -7,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,53; -1,97</t>
+          <t>-35,73; -2,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,38; -18,66</t>
+          <t>-47,93; -16,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,8; -8,56</t>
+          <t>-43,93; -9,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 1,63</t>
+          <t>-6,57; 1,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,26; -3,62</t>
+          <t>-11,25; -3,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 1,03</t>
+          <t>-7,63; 1,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 2,12</t>
+          <t>-6,27; 2,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,55; -3,59</t>
+          <t>-11,81; -3,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -3,29</t>
+          <t>-11,35; -3,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 0,81</t>
+          <t>-5,54; 0,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,37; -4,52</t>
+          <t>-10,36; -4,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -2,46</t>
+          <t>-8,19; -2,51</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 11,34</t>
+          <t>-34,01; 8,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,04; -24,36</t>
+          <t>-58,43; -24,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 7,22</t>
+          <t>-38,08; 7,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 10,66</t>
+          <t>-26,45; 11,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,05; -18,16</t>
+          <t>-48,65; -18,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,32; -17,17</t>
+          <t>-47,07; -18,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 4,55</t>
+          <t>-25,95; 4,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,01; -25,51</t>
+          <t>-49,21; -25,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,5; -13,25</t>
+          <t>-38,6; -13,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 3,78</t>
+          <t>-6,65; 3,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 2,67</t>
+          <t>-7,53; 2,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 2,47</t>
+          <t>-7,67; 1,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 3,42</t>
+          <t>-7,43; 3,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -3,61</t>
+          <t>-13,19; -3,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -2,11</t>
+          <t>-11,74; -2,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 2,42</t>
+          <t>-5,16; 2,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,73; -2,0</t>
+          <t>-8,89; -1,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,18; -1,28</t>
+          <t>-8,3; -1,45</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 25,48</t>
+          <t>-31,59; 22,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 17,66</t>
+          <t>-33,82; 15,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 15,94</t>
+          <t>-38,84; 11,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 13,58</t>
+          <t>-23,73; 14,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,0; -13,6</t>
+          <t>-43,15; -12,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,15; -8,63</t>
+          <t>-37,97; -10,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 10,95</t>
+          <t>-20,72; 9,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,92; -9,36</t>
+          <t>-35,55; -7,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,37; -6,53</t>
+          <t>-33,29; -6,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 1,35</t>
+          <t>-11,43; 0,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,51; -3,94</t>
+          <t>-15,63; -3,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,66; -2,68</t>
+          <t>-13,25; -2,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 3,12</t>
+          <t>-9,87; 3,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -1,09</t>
+          <t>-13,79; -1,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,73; -2,52</t>
+          <t>-14,8; -3,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 0,42</t>
+          <t>-9,04; 0,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -4,29</t>
+          <t>-12,87; -4,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -4,26</t>
+          <t>-11,96; -4,44</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 5,53</t>
+          <t>-36,3; 2,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,66; -15,69</t>
+          <t>-48,44; -14,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,9; -10,21</t>
+          <t>-40,52; -8,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 9,39</t>
+          <t>-25,0; 9,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,0; -3,45</t>
+          <t>-34,98; -3,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-33,79; -7,31</t>
+          <t>-36,83; -10,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 1,48</t>
+          <t>-25,55; 0,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-37,5; -14,27</t>
+          <t>-36,64; -13,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,88; -14,35</t>
+          <t>-34,45; -14,7</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 1,21</t>
+          <t>-11,51; 0,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 0,04</t>
+          <t>-11,68; -0,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,63; -5,45</t>
+          <t>-16,03; -5,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -7,29</t>
+          <t>-17,44; -7,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -8,37</t>
+          <t>-18,46; -8,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,64; -16,7</t>
+          <t>-32,56; -16,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -5,01</t>
+          <t>-12,87; -5,27</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,39; -6,18</t>
+          <t>-14,12; -6,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-23,96; -13,22</t>
+          <t>-24,21; -13,43</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 3,34</t>
+          <t>-26,7; 2,68</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 0,14</t>
+          <t>-27,4; -0,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-36,82; -14,78</t>
+          <t>-37,24; -14,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,05; -13,75</t>
+          <t>-30,19; -13,46</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,99; -16,17</t>
+          <t>-32,2; -16,17</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-58,34; -31,09</t>
+          <t>-57,27; -30,67</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-26,39; -10,68</t>
+          <t>-25,64; -11,23</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-28,92; -13,43</t>
+          <t>-28,21; -13,23</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-48,59; -28,59</t>
+          <t>-49,52; -29,21</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,21; -0,33</t>
+          <t>-4,08; -0,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -1,92</t>
+          <t>-5,49; -2,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,86; -0,79</t>
+          <t>-4,64; -0,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -2,07</t>
+          <t>-6,3; -1,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,56; -5,39</t>
+          <t>-9,5; -5,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -5,29</t>
+          <t>-9,97; -5,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -1,78</t>
+          <t>-4,82; -1,8</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,14; -4,22</t>
+          <t>-7,12; -4,09</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -3,32</t>
+          <t>-6,38; -3,39</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,24; -1,62</t>
+          <t>-20,14; -1,63</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,22; -10,49</t>
+          <t>-27,15; -11,27</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -4,34</t>
+          <t>-23,01; -3,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,27; -7,16</t>
+          <t>-20,44; -6,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-30,75; -18,73</t>
+          <t>-31,14; -18,4</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-33,14; -18,5</t>
+          <t>-32,27; -18,09</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-18,26; -7,35</t>
+          <t>-18,88; -7,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-27,85; -17,32</t>
+          <t>-27,94; -17,02</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-25,15; -14,03</t>
+          <t>-25,18; -14,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-2,7</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 0,27</t>
+          <t>-7,93; 0,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 6,64</t>
+          <t>-6,43; 6,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 2,04</t>
+          <t>-6,11; 1,72</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-49,17%</t>
+          <t>-49,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,19%</t>
+          <t>-0,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-19,63%</t>
+          <t>-22,82%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-80,12; 12,66</t>
+          <t>-81,42; 12,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 47,78</t>
+          <t>-37,08; 49,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 19,16</t>
+          <t>-46,8; 17,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-4,74</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 1,52</t>
+          <t>-6,53; 2,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -1,47</t>
+          <t>-12,87; -2,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -1,3</t>
+          <t>-8,19; -1,48</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,03%</t>
+          <t>-21,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-33,22%</t>
+          <t>-40,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-28,33%</t>
+          <t>-31,65%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 14,42</t>
+          <t>-49,45; 20,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,08; -7,94</t>
+          <t>-64,83; -17,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,93; -9,1</t>
+          <t>-49,95; -10,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,27</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-5,14</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 1,06</t>
+          <t>-7,61; 1,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -3,76</t>
+          <t>-11,21; -3,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -2,51</t>
+          <t>-8,11; -2,41</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,56%</t>
+          <t>-17,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,25%</t>
+          <t>-32,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-26,68%</t>
+          <t>-26,26%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 7,89</t>
+          <t>-38,31; 8,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,07; -18,9</t>
+          <t>-46,16; -18,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,6; -13,64</t>
+          <t>-38,36; -13,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-7,25</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 1,91</t>
+          <t>-15,56; 0,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -2,51</t>
+          <t>-12,99; -3,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -1,45</t>
+          <t>-14,11; -3,04</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,1%</t>
+          <t>-31,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-26,06%</t>
+          <t>-28,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-20,83%</t>
+          <t>-31,63%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 11,87</t>
+          <t>-75,04; 2,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -10,07</t>
+          <t>-41,41; -12,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,29; -6,88</t>
+          <t>-57,54; -13,8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-8,03</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-8,41</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-8,31</t>
+          <t>-8,16</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -2,18</t>
+          <t>-13,11; -2,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,8; -3,31</t>
+          <t>-14,72; -3,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,96; -4,44</t>
+          <t>-11,8; -4,24</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-27,63%</t>
+          <t>-27,15%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-23,3%</t>
+          <t>-22,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-25,44%</t>
+          <t>-25,0%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,52; -8,08</t>
+          <t>-40,51; -8,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,83; -10,67</t>
+          <t>-36,1; -10,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,45; -14,7</t>
+          <t>-33,44; -14,14</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,53</t>
+          <t>-9,82</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-12,15</t>
+          <t>-16,38</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-13,59</t>
+          <t>-17,4</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-22,28</t>
+          <t>-32,26</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-8,99</t>
+          <t>-11,14</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-10,31</t>
+          <t>-12,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-17,18</t>
+          <t>-22,12</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 0,81</t>
+          <t>-12,07; 2,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -0,1</t>
+          <t>-13,26; 1,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -5,32</t>
+          <t>-16,06; -4,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -7,28</t>
+          <t>-23,47; -9,76</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,46; -8,45</t>
+          <t>-25,16; -10,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-32,56; -16,45</t>
+          <t>-48,38; -19,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -5,27</t>
+          <t>-17,06; -6,17</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,12; -6,08</t>
+          <t>-16,95; -7,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-24,21; -13,43</t>
+          <t>-34,14; -14,68</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-12,01%</t>
+          <t>-14,78%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-14,82%</t>
+          <t>-19,19%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-27,01%</t>
+          <t>-29,71%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-22,06%</t>
+          <t>-30,78%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-24,67%</t>
+          <t>-32,7%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-40,46%</t>
+          <t>-60,61%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-18,65%</t>
+          <t>-25,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-21,38%</t>
+          <t>-28,19%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-35,64%</t>
+          <t>-50,34%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 2,68</t>
+          <t>-32,72; 11,75</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,4; -0,15</t>
+          <t>-36,58; 3,17</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-37,24; -14,77</t>
+          <t>-42,92; -14,69</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,19; -13,46</t>
+          <t>-41,33; -18,92</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,2; -16,17</t>
+          <t>-43,59; -20,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-57,27; -30,67</t>
+          <t>-86,06; -37,63</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-25,64; -11,23</t>
+          <t>-36,59; -14,75</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-28,21; -13,23</t>
+          <t>-36,9; -17,39</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-49,52; -29,21</t>
+          <t>-75,52; -34,33</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-11,17</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-8,52</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-10,12</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-7,13</t>
+          <t>-15,01</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-5,64</t>
+          <t>-8,42</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-13,61</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -0,29</t>
+          <t>-15,91; 3,57</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,49; -2,1</t>
+          <t>-14,42; 3,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,7</t>
+          <t>-18,99; -3,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -1,83</t>
+          <t>-16,5; -0,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -5,23</t>
+          <t>-17,37; -1,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -5,2</t>
+          <t>-21,82; -8,07</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -1,8</t>
+          <t>-13,21; -1,06</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -4,09</t>
+          <t>-14,12; -2,07</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-6,38; -3,39</t>
+          <t>-18,62; -8,33</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-11,28%</t>
+          <t>-11,24%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-19,68%</t>
+          <t>-11,9%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>-23,62%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-14,16%</t>
+          <t>-14,95%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-25,05%</t>
+          <t>-17,77%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-24,04%</t>
+          <t>-26,36%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-12,99%</t>
+          <t>-13,73%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-22,88%</t>
+          <t>-15,82%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-19,6%</t>
+          <t>-25,57%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-29,88; 8,42</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-27,34; 8,71</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-35,56; -6,87</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-27,09; -0,92</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-28,78; -3,49</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-35,27; -15,5</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-23,27; -2,03</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-25,02; -4,4</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-32,76; -16,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-3,75</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-4,2</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-7,43</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-8,16</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-5,64</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-5,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; -0,29</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; -2,1</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-7,25; -1,56</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; -1,83</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; -5,23</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; -5,79</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; -1,8</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; -4,09</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-8,51; -4,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-11,28%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-19,68%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-19,23%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-14,16%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-25,05%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-27,5%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-12,99%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-22,88%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-24,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-20,14; -1,63</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-27,15; -11,27</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-23,01; -3,85</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-36,69; -8,94</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-20,44; -6,43</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-31,14; -18,4</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-32,27; -18,09</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-40,79; -20,23</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-18,88; -7,51</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-27,94; -17,02</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-25,18; -14,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-33,6; -16,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,99</t>
+          <t>-4,11; 2,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 1,87</t>
+          <t>-5,13; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 0,35</t>
+          <t>-7,62; 0,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,38; -0,17</t>
+          <t>-9,75; -0,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -0,87</t>
+          <t>-9,67; -0,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 6,83</t>
+          <t>-6,36; 6,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,32</t>
+          <t>-5,48; 0,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; -0,58</t>
+          <t>-6,36; -0,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 1,72</t>
+          <t>-6,42; 1,46</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,39; 43,44</t>
+          <t>-40,92; 44,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,05; 28,18</t>
+          <t>-51,4; 24,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,42; 12,2</t>
+          <t>-80,92; 15,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 0,09</t>
+          <t>-54,32; -3,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,96; -5,76</t>
+          <t>-53,92; -4,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 49,55</t>
+          <t>-35,93; 46,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 4,58</t>
+          <t>-41,64; 3,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,83; -5,09</t>
+          <t>-46,62; 0,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-46,8; 17,68</t>
+          <t>-49,34; 15,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 0,89</t>
+          <t>-6,3; 0,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 0,25</t>
+          <t>-6,52; 0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 2,28</t>
+          <t>-6,95; 2,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,73</t>
+          <t>-8,45; 0,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,69; -3,36</t>
+          <t>-11,65; -3,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -2,84</t>
+          <t>-13,18; -2,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; -0,35</t>
+          <t>-5,59; -0,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; -2,44</t>
+          <t>-7,92; -2,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -1,48</t>
+          <t>-8,07; -1,49</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 10,77</t>
+          <t>-44,34; 5,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,73; 2,9</t>
+          <t>-48,7; 3,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,45; 20,89</t>
+          <t>-52,88; 21,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 4,67</t>
+          <t>-41,02; 4,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,58; -20,37</t>
+          <t>-56,23; -21,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,83; -17,68</t>
+          <t>-63,2; -17,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,73; -2,67</t>
+          <t>-34,57; -0,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,93; -16,54</t>
+          <t>-48,04; -18,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,95; -10,42</t>
+          <t>-51,18; -10,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 1,17</t>
+          <t>-6,8; 1,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,25; -3,77</t>
+          <t>-10,86; -3,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 1,1</t>
+          <t>-7,41; 1,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 2,27</t>
+          <t>-6,72; 2,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,81; -3,64</t>
+          <t>-11,73; -3,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,21; -3,51</t>
+          <t>-10,99; -2,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,76</t>
+          <t>-5,23; 0,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -4,65</t>
+          <t>-10,56; -4,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,11; -2,41</t>
+          <t>-7,88; -2,03</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 8,99</t>
+          <t>-35,05; 12,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,43; -24,15</t>
+          <t>-57,45; -25,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 8,06</t>
+          <t>-38,79; 8,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 11,99</t>
+          <t>-27,8; 11,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,65; -18,61</t>
+          <t>-48,4; -18,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,16; -18,3</t>
+          <t>-45,74; -14,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 4,22</t>
+          <t>-25,15; 2,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,21; -25,78</t>
+          <t>-50,3; -27,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,36; -13,54</t>
+          <t>-38,52; -11,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 3,26</t>
+          <t>-5,83; 3,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 2,19</t>
+          <t>-6,78; 2,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 0,47</t>
+          <t>-14,0; 0,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 3,66</t>
+          <t>-7,08; 4,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,19; -3,15</t>
+          <t>-13,4; -3,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,99; -3,05</t>
+          <t>-13,39; -3,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,15</t>
+          <t>-5,04; 2,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -1,73</t>
+          <t>-8,58; -1,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,11; -3,04</t>
+          <t>-14,59; -3,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 22,71</t>
+          <t>-28,96; 23,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 15,86</t>
+          <t>-33,19; 16,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,04; 2,55</t>
+          <t>-70,55; 4,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 14,58</t>
+          <t>-22,61; 16,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,15; -12,81</t>
+          <t>-43,2; -14,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,41; -12,42</t>
+          <t>-42,92; -13,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 9,92</t>
+          <t>-20,49; 10,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,55; -7,85</t>
+          <t>-34,86; -9,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,54; -13,8</t>
+          <t>-60,38; -14,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 0,76</t>
+          <t>-11,69; 1,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,63; -3,91</t>
+          <t>-15,2; -3,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -2,12</t>
+          <t>-13,98; -2,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 3,06</t>
+          <t>-10,07; 3,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,79; -1,14</t>
+          <t>-14,04; -1,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,72; -3,23</t>
+          <t>-13,99; -2,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 0,13</t>
+          <t>-8,54; 0,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -4,17</t>
+          <t>-13,1; -4,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -4,24</t>
+          <t>-11,8; -4,18</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 2,96</t>
+          <t>-36,17; 5,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,44; -14,66</t>
+          <t>-48,06; -13,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,51; -8,15</t>
+          <t>-42,31; -9,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 9,57</t>
+          <t>-25,82; 10,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,98; -3,39</t>
+          <t>-35,49; -3,05</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,1; -10,08</t>
+          <t>-34,27; -7,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 0,56</t>
+          <t>-24,51; 0,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,64; -13,38</t>
+          <t>-37,65; -13,59</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,44; -14,14</t>
+          <t>-33,31; -14,07</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 2,77</t>
+          <t>-12,53; 2,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 1,02</t>
+          <t>-13,7; 1,27</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,06; -4,32</t>
+          <t>-16,57; -3,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-23,47; -9,76</t>
+          <t>-23,57; -8,74</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-25,16; -10,6</t>
+          <t>-23,94; -9,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-48,38; -19,42</t>
+          <t>-47,71; -19,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-17,06; -6,17</t>
+          <t>-17,03; -5,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-16,95; -7,0</t>
+          <t>-17,55; -7,66</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-34,14; -14,68</t>
+          <t>-35,03; -14,95</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 11,75</t>
+          <t>-33,57; 9,15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 3,17</t>
+          <t>-36,98; 4,67</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,92; -14,69</t>
+          <t>-44,07; -12,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-41,33; -18,92</t>
+          <t>-41,96; -17,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,59; -20,64</t>
+          <t>-42,86; -19,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-86,06; -37,63</t>
+          <t>-83,39; -37,96</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -14,75</t>
+          <t>-35,97; -13,16</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-36,9; -17,39</t>
+          <t>-38,0; -18,52</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-75,52; -34,33</t>
+          <t>-73,34; -34,74</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 3,57</t>
+          <t>-14,52; 4,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 3,53</t>
+          <t>-14,68; 2,47</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -3,05</t>
+          <t>-19,32; -3,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-16,5; -0,4</t>
+          <t>-15,99; -0,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-17,37; -1,7</t>
+          <t>-18,29; -1,36</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-21,82; -8,07</t>
+          <t>-21,17; -8,31</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-13,21; -1,06</t>
+          <t>-13,71; -1,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-14,12; -2,07</t>
+          <t>-14,9; -2,47</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-18,62; -8,33</t>
+          <t>-18,54; -8,22</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 8,42</t>
+          <t>-28,39; 11,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 8,71</t>
+          <t>-28,27; 5,61</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-35,56; -6,87</t>
+          <t>-36,58; -8,04</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,09; -0,92</t>
+          <t>-26,0; -0,82</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-28,78; -3,49</t>
+          <t>-29,86; -2,94</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-35,27; -15,5</t>
+          <t>-34,42; -15,79</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,27; -2,03</t>
+          <t>-23,96; -3,01</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-25,02; -4,4</t>
+          <t>-26,25; -4,8</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-32,76; -16,62</t>
+          <t>-32,75; -16,39</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -0,29</t>
+          <t>-4,22; -0,38</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,49; -2,1</t>
+          <t>-5,66; -1,84</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -1,56</t>
+          <t>-7,47; -1,68</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -1,83</t>
+          <t>-6,37; -2,09</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -5,23</t>
+          <t>-9,6; -5,27</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-12,08; -5,79</t>
+          <t>-12,64; -5,64</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,82; -1,8</t>
+          <t>-4,64; -1,68</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -4,09</t>
+          <t>-6,96; -4,05</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-8,51; -4,05</t>
+          <t>-8,51; -4,11</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-20,14; -1,63</t>
+          <t>-20,43; -2,06</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-27,15; -11,27</t>
+          <t>-27,63; -9,85</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-36,69; -8,94</t>
+          <t>-36,83; -8,84</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-20,44; -6,43</t>
+          <t>-20,78; -7,32</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-31,14; -18,4</t>
+          <t>-31,2; -18,31</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-40,79; -20,23</t>
+          <t>-42,08; -19,56</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-18,88; -7,51</t>
+          <t>-18,15; -6,93</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-27,94; -17,02</t>
+          <t>-27,67; -16,88</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-33,6; -16,91</t>
+          <t>-33,82; -17,27</t>
         </is>
       </c>
     </row>
